--- a/DeVision/system/ExampleModel.xlsx
+++ b/DeVision/system/ExampleModel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GitRepositories\fangliang11\CoatVisionInspection\DeVision\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\瑕疵检测数据记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,40 +30,10 @@
     <t>产品瑕疵检测报告</t>
   </si>
   <si>
-    <t>产品批号</t>
-  </si>
-  <si>
     <t>检测时间</t>
   </si>
   <si>
-    <t>检测员</t>
-  </si>
-  <si>
-    <t>产品型号</t>
-  </si>
-  <si>
     <t>检测长度(m)</t>
-  </si>
-  <si>
-    <t>类型1</t>
-  </si>
-  <si>
-    <t>类型2</t>
-  </si>
-  <si>
-    <t>类型3</t>
-  </si>
-  <si>
-    <t>类型4</t>
-  </si>
-  <si>
-    <t>类型5</t>
-  </si>
-  <si>
-    <t>严重缺陷</t>
-  </si>
-  <si>
-    <t>检测结果</t>
   </si>
   <si>
     <t>序号</t>
@@ -89,11 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尺寸
-(mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平均速度
 (m/min)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,7 +69,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凹凸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D级瑕疵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本卷评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>瑕疵等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周长
+(mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,35 +311,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -650,19 +660,19 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -678,286 +688,286 @@
       <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
+      <c r="A3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="7"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="7"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="7"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="7"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="7"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="7"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="7"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="7"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="7"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="7"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -979,19 +989,19 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1007,97 +1017,97 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1561,46 +1571,46 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
+      <c r="A66" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/DeVision/system/ExampleModel.xlsx
+++ b/DeVision/system/ExampleModel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\瑕疵检测数据记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GitRepositories\fangliang11\CoatVisionInspection\DeVision\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="瑕疵列表" sheetId="1" r:id="rId1"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DeVision/system/ExampleModel.xlsx
+++ b/DeVision/system/ExampleModel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="瑕疵列表" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
